--- a/new-homepage-ads-2017.xlsx
+++ b/new-homepage-ads-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Toshiba 500GB HDD/Users/Jeff/Sites/GitHub/newProductBuilder/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="9440" windowWidth="25500" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="520" windowWidth="25520" windowHeight="20960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -12,11 +17,11 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -725,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,11 +740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
@@ -748,7 +753,7 @@
     <col min="6" max="6" width="143.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -768,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" customHeight="1">
+    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -788,7 +793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="380" customHeight="1">
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -808,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="408" customHeight="1">
+    <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -828,7 +833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="334" customHeight="1">
+    <row r="5" spans="1:6" ht="334" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -848,7 +853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="380" customHeight="1">
+    <row r="6" spans="1:6" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -868,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="392" customHeight="1">
+    <row r="7" spans="1:6" ht="392" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -888,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409" customHeight="1">
+    <row r="8" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -908,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409">
+    <row r="9" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -928,7 +933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="384">
+    <row r="10" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -947,11 +952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -963,7 +963,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -972,7 +972,7 @@
     <col min="5" max="5" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="352">
+    <row r="2" spans="1:5" ht="352" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1008,10 +1008,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/new-homepage-ads-2017.xlsx
+++ b/new-homepage-ads-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="520" windowWidth="25520" windowHeight="20960" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25520" windowHeight="20960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="334" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="380" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="392" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>

--- a/new-homepage-ads-2017.xlsx
+++ b/new-homepage-ads-2017.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Toshiba 500GB HDD/Users/Jeff/Sites/GitHub/newProductBuilder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25520" windowHeight="20960" tabRatio="500"/>
   </bookViews>
@@ -15,13 +10,13 @@
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
     <sheet name="Search Form" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -730,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,11 +735,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
@@ -753,7 +748,7 @@
     <col min="6" max="6" width="143.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -773,7 +768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="233" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -793,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="233" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -813,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="228" customHeight="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -833,7 +828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="239" customHeight="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -853,7 +848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="241" customHeight="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -873,7 +868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="260" customHeight="1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -893,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="255">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -913,7 +908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="409">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -933,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="285">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -952,6 +947,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -963,7 +963,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -972,7 +972,7 @@
     <col min="5" max="5" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="352" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="352">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1008,5 +1008,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>